--- a/variable dictionaries/ACCESS Variable Dictionary 2018-2019.xlsx
+++ b/variable dictionaries/ACCESS Variable Dictionary 2018-2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yun.yao\Documents\ACCESS for ELLs\2019\ACCESS 2018-2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yun.yao\Documents\ACCESS for ELLs\2019\ACCESS 2018-2019\variable dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="180">
   <si>
     <t>Variable</t>
   </si>
@@ -552,6 +552,18 @@
   </si>
   <si>
     <t>2 levels: 1 = Proficient, 0 = Not Proficient</t>
+  </si>
+  <si>
+    <t>PL_integer</t>
+  </si>
+  <si>
+    <t>student's composite proficiency level in integers</t>
+  </si>
+  <si>
+    <t>1-6, NA, blank</t>
+  </si>
+  <si>
+    <t>whether the student is proficient</t>
   </si>
 </sst>
 </file>
@@ -931,10 +943,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55:G56"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,39 +1984,39 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="F53" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2012,7 +2024,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
@@ -2022,10 +2034,10 @@
         <v>144</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2033,7 +2045,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
@@ -2043,10 +2055,10 @@
         <v>144</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2054,7 +2066,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
@@ -2064,47 +2076,49 @@
         <v>144</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="10"/>
+      <c r="B59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>168</v>
+        <v>32</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G59" s="7"/>
     </row>
@@ -2113,17 +2127,17 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G60" s="7"/>
     </row>
@@ -2132,17 +2146,17 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G61" s="7"/>
     </row>
@@ -2151,17 +2165,17 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -2170,19 +2184,38 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E63" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F64" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G63" s="7"/>
+      <c r="G64" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/variable dictionaries/ACCESS Variable Dictionary 2018-2019.xlsx
+++ b/variable dictionaries/ACCESS Variable Dictionary 2018-2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yun.yao\Documents\ACCESS for ELLs\2019\ACCESS 2018-2019\variable dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yun.yao\Documents\ACCESS for ELLs\ACCESS for ELLs\variable dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="184">
   <si>
     <t>Variable</t>
   </si>
@@ -564,6 +564,18 @@
   </si>
   <si>
     <t>whether the student is proficient</t>
+  </si>
+  <si>
+    <t>STARS_distcode</t>
+  </si>
+  <si>
+    <t>district code from STARS</t>
+  </si>
+  <si>
+    <t>STARS_schode</t>
+  </si>
+  <si>
+    <t>school code from STARS</t>
   </si>
 </sst>
 </file>
@@ -943,10 +955,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,18 +1072,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1079,18 +1091,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1098,18 +1110,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1117,16 +1129,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="7"/>
@@ -1136,16 +1148,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1153,14 +1167,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="7"/>
@@ -1170,16 +1186,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="7"/>
@@ -1189,18 +1203,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1208,20 +1220,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1229,19 +1239,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -1250,7 +1258,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
@@ -1259,7 +1267,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>85</v>
@@ -1271,7 +1279,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>29</v>
@@ -1280,7 +1288,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>85</v>
@@ -1292,7 +1300,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
@@ -1301,29 +1309,31 @@
         <v>53</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -1332,36 +1342,38 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1370,17 +1382,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="G21" s="7"/>
     </row>
@@ -1389,17 +1401,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -1408,17 +1420,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -1427,17 +1439,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1446,17 +1458,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -1465,17 +1477,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -1484,17 +1496,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -1503,17 +1515,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1522,17 +1534,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -1541,17 +1553,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1560,17 +1572,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="G31" s="7"/>
     </row>
@@ -1579,17 +1591,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -1598,17 +1610,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -1617,7 +1629,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
@@ -1636,7 +1648,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
@@ -1655,16 +1667,18 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1672,17 +1686,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G37" s="7"/>
     </row>
@@ -1691,18 +1705,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1710,14 +1722,14 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>108</v>
@@ -1729,14 +1741,14 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>108</v>
@@ -1748,62 +1760,58 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,20 +1819,20 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1832,52 +1840,56 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G46" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>122</v>
@@ -1889,14 +1901,14 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>122</v>
@@ -1908,14 +1920,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>122</v>
@@ -1927,14 +1939,14 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>122</v>
@@ -1946,14 +1958,14 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>122</v>
@@ -1965,14 +1977,14 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>122</v>
@@ -1984,17 +1996,17 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="G53" s="7"/>
     </row>
@@ -2003,62 +2015,58 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2066,7 +2074,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
@@ -2076,10 +2084,10 @@
         <v>144</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,7 +2095,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
@@ -2097,66 +2105,70 @@
         <v>144</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G59" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="10"/>
+      <c r="B60" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E60" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" s="10"/>
+      <c r="B61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>171</v>
+        <v>32</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G61" s="7"/>
     </row>
@@ -2165,17 +2177,17 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -2184,17 +2196,17 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G63" s="7"/>
     </row>
@@ -2203,19 +2215,57 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E64" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F66" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G64" s="7"/>
+      <c r="G66" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/variable dictionaries/ACCESS Variable Dictionary 2018-2019.xlsx
+++ b/variable dictionaries/ACCESS Variable Dictionary 2018-2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="183">
   <si>
     <t>Variable</t>
   </si>
@@ -242,9 +242,6 @@
     <t>accommodation</t>
   </si>
   <si>
-    <t>2 levels: 1 = Yes, 0 = No</t>
-  </si>
-  <si>
     <t>Proficient</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>ACCESS</t>
   </si>
   <si>
-    <t>2 levels: Online, Paper</t>
-  </si>
-  <si>
     <t>SS_listen</t>
   </si>
   <si>
@@ -491,18 +485,6 @@
     <t>2 levels: Plan 504, not Plan 504</t>
   </si>
   <si>
-    <t>mode_listen</t>
-  </si>
-  <si>
-    <t>mode_read</t>
-  </si>
-  <si>
-    <t>mode_speak</t>
-  </si>
-  <si>
-    <t>mode_write</t>
-  </si>
-  <si>
     <t>missing_listen</t>
   </si>
   <si>
@@ -576,6 +558,21 @@
   </si>
   <si>
     <t>school code from STARS</t>
+  </si>
+  <si>
+    <t>cbt_listen</t>
+  </si>
+  <si>
+    <t>cbt_read</t>
+  </si>
+  <si>
+    <t>cbt_speak</t>
+  </si>
+  <si>
+    <t>cbt_write</t>
+  </si>
+  <si>
+    <t>2 levels: Y, N</t>
   </si>
 </sst>
 </file>
@@ -957,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,10 +992,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1006,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1015,16 +1012,16 @@
         <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1032,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1041,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
@@ -1062,7 +1059,7 @@
         <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -1072,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>26</v>
@@ -1081,7 +1078,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="7"/>
@@ -1098,10 +1095,10 @@
         <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -1119,7 +1116,7 @@
         <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="7"/>
@@ -1129,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>26</v>
@@ -1138,7 +1135,7 @@
         <v>53</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="7"/>
@@ -1158,7 +1155,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -1258,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
@@ -1267,10 +1264,10 @@
         <v>53</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -1279,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>29</v>
@@ -1288,10 +1285,10 @@
         <v>53</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -1300,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
@@ -1309,10 +1306,10 @@
         <v>53</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -1321,7 +1318,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
@@ -1330,10 +1327,10 @@
         <v>53</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -1342,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1420,17 +1417,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -1563,7 +1560,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1582,7 +1579,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" s="7"/>
     </row>
@@ -1601,7 +1598,7 @@
         <v>67</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -1620,7 +1617,7 @@
         <v>70</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -1629,7 +1626,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
@@ -1639,7 +1636,7 @@
         <v>68</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -1648,7 +1645,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
@@ -1658,7 +1655,7 @@
         <v>68</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="G35" s="7"/>
     </row>
@@ -1667,7 +1664,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
@@ -1677,7 +1674,7 @@
         <v>68</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="G36" s="7"/>
     </row>
@@ -1686,7 +1683,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
@@ -1696,7 +1693,7 @@
         <v>68</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="G37" s="7"/>
     </row>
@@ -1712,7 +1709,7 @@
         <v>53</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="7"/>
@@ -1722,17 +1719,17 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G39" s="7"/>
     </row>
@@ -1741,17 +1738,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G40" s="7"/>
     </row>
@@ -1760,17 +1757,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G41" s="7"/>
     </row>
@@ -1779,17 +1776,17 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G42" s="7"/>
     </row>
@@ -1798,20 +1795,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1819,20 +1816,20 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,20 +1837,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1861,20 +1858,20 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1882,17 +1879,17 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G47" s="7"/>
     </row>
@@ -1901,17 +1898,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G48" s="7"/>
     </row>
@@ -1920,17 +1917,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G49" s="7"/>
     </row>
@@ -1939,17 +1936,17 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G50" s="7"/>
     </row>
@@ -1958,17 +1955,17 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G51" s="7"/>
     </row>
@@ -1977,17 +1974,17 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G52" s="7"/>
     </row>
@@ -1996,17 +1993,17 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G53" s="7"/>
     </row>
@@ -2015,17 +2012,17 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G54" s="7"/>
     </row>
@@ -2034,17 +2031,17 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G55" s="7"/>
     </row>
@@ -2053,20 +2050,20 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2074,20 +2071,20 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2095,20 +2092,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2116,20 +2113,20 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2137,20 +2134,20 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2168,7 +2165,7 @@
         <v>69</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G61" s="7"/>
     </row>
@@ -2177,17 +2174,17 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -2196,17 +2193,17 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E63" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="G63" s="7"/>
     </row>
@@ -2215,17 +2212,17 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E64" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="G64" s="7"/>
     </row>
@@ -2234,17 +2231,17 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E65" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="G65" s="7"/>
     </row>
@@ -2253,17 +2250,17 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G66" s="7"/>
     </row>
